--- a/Excel/Goorin Brothers/04.03.2022 GOORIN BROTHERS — загрузка.xlsx
+++ b/Excel/Goorin Brothers/04.03.2022 GOORIN BROTHERS — загрузка.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E4AF70-1FBF-4201-90AD-6DC4225AA425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Goorin Brothers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0FAEC9-2BC3-44F4-8051-82BDA14CE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9ECB5CF2-3CEA-4955-B8F9-2544986D9CC6}"/>
   </bookViews>
@@ -2519,9 +2524,9 @@
   </sheetPr>
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS22" sqref="AS22"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,7 +2756,7 @@
         <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>617</v>
       </c>
       <c r="W3" t="s">
         <v>50</v>
